--- a/public/plantillas/gruposPlantilla.xlsx
+++ b/public/plantillas/gruposPlantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\TFG-PAP\web_app\public\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG\TFG-PAP\public\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8718D4-27D7-443A-8B23-206281B65687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219825F7-673E-4ACD-85C3-618371BC8F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tipo</t>
   </si>
@@ -42,7 +42,16 @@
     <t>Curso</t>
   </si>
   <si>
-    <t>Código Asignatura</t>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Hora_Inicio</t>
+  </si>
+  <si>
+    <t>Hora_Fin</t>
   </si>
 </sst>
 </file>
@@ -376,19 +385,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="5" width="20.77734375" customWidth="1"/>
+    <col min="1" max="9" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -407,8 +415,23 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" s="2"/>
     </row>
   </sheetData>
